--- a/data/trans_orig/P57B2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57B2_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{710B9C22-BEAB-492C-8292-D2167E6183D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC91CA31-2E96-42D0-9A2F-9C2A1A945417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{35312770-20CE-4F4F-B52F-EE4B1C5DA433}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{05BAE98F-FEBB-4378-B6FD-D9F01039188E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="333">
   <si>
     <t>Población según se ha sentido feliz en 2023 (Tasa respuesta: 99,57%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>13,73%</t>
   </si>
   <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
   </si>
   <si>
     <t>3,58%</t>
   </si>
   <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
   </si>
   <si>
     <t>8,55%</t>
   </si>
   <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
   </si>
   <si>
     <t>Buena parte del tiempo</t>
@@ -104,28 +104,28 @@
     <t>75,26%</t>
   </si>
   <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
   </si>
   <si>
     <t>81,12%</t>
   </si>
   <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
   </si>
   <si>
     <t>78,25%</t>
   </si>
   <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
   </si>
   <si>
     <t>En algún momento</t>
@@ -134,28 +134,28 @@
     <t>11,01%</t>
   </si>
   <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
   </si>
   <si>
     <t>15,1%</t>
   </si>
   <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
   </si>
   <si>
     <t>13,1%</t>
   </si>
   <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
   </si>
   <si>
     <t>En ningún momento o en casi ningún momento</t>
@@ -173,13 +173,13 @@
     <t>0,2%</t>
   </si>
   <si>
-    <t>1,15%</t>
+    <t>1,12%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,49%</t>
+    <t>0,52%</t>
   </si>
   <si>
     <t>100%</t>
@@ -191,835 +191,847 @@
     <t>64,79%</t>
   </si>
   <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
   </si>
   <si>
     <t>56,54%</t>
   </si>
   <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
+    <t>52,76%</t>
   </si>
   <si>
     <t>60,54%</t>
   </si>
   <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
   </si>
   <si>
     <t>29,02%</t>
   </si>
   <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
   </si>
   <si>
     <t>36,18%</t>
   </si>
   <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
   </si>
   <si>
     <t>32,71%</t>
   </si>
   <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
   </si>
   <si>
     <t>5,11%</t>
   </si>
   <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
   </si>
   <si>
     <t>6,15%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
   </si>
   <si>
     <t>5,65%</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
   </si>
   <si>
     <t>1,08%</t>
   </si>
   <si>
-    <t>0,29%</t>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
   </si>
   <si>
     <t>2,64%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
   </si>
   <si>
     <t>16,71%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
   </si>
   <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>1,98%</t>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1434,7 +1446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3056551E-99BB-4F16-91B0-68E7AC9AB45A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A7570CA-5289-49AF-BFAB-9AF4740A4E5A}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1845,13 +1857,13 @@
         <v>648296</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1866,13 +1878,13 @@
         <v>150683</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>276</v>
@@ -1881,13 +1893,13 @@
         <v>199559</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>389</v>
@@ -1896,13 +1908,13 @@
         <v>350241</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1917,13 +1929,13 @@
         <v>26526</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>48</v>
@@ -1932,13 +1944,13 @@
         <v>33941</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>69</v>
@@ -1947,13 +1959,13 @@
         <v>60467</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1968,13 +1980,13 @@
         <v>5634</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -1983,13 +1995,13 @@
         <v>6219</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
         <v>12</v>
@@ -1998,13 +2010,13 @@
         <v>11852</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2060,7 +2072,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2072,13 +2084,13 @@
         <v>201392</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>283</v>
@@ -2087,13 +2099,13 @@
         <v>212147</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>488</v>
@@ -2102,13 +2114,13 @@
         <v>413540</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2123,13 +2135,13 @@
         <v>64270</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H15" s="7">
         <v>135</v>
@@ -2138,13 +2150,13 @@
         <v>91798</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M15" s="7">
         <v>218</v>
@@ -2153,13 +2165,13 @@
         <v>156069</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2174,13 +2186,13 @@
         <v>45865</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H16" s="7">
         <v>89</v>
@@ -2189,13 +2201,13 @@
         <v>52645</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M16" s="7">
         <v>145</v>
@@ -2204,13 +2216,13 @@
         <v>98510</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2225,13 +2237,13 @@
         <v>10713</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -2240,13 +2252,13 @@
         <v>14191</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>41</v>
@@ -2255,13 +2267,13 @@
         <v>24904</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2317,7 +2329,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2329,13 +2341,13 @@
         <v>198301</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>299</v>
@@ -2344,13 +2356,13 @@
         <v>223168</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>463</v>
@@ -2359,13 +2371,13 @@
         <v>421470</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2380,13 +2392,13 @@
         <v>82811</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>202</v>
@@ -2395,13 +2407,13 @@
         <v>145681</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>290</v>
@@ -2410,13 +2422,13 @@
         <v>228493</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2431,13 +2443,13 @@
         <v>24680</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>73</v>
@@ -2446,13 +2458,13 @@
         <v>45798</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>97</v>
@@ -2461,13 +2473,13 @@
         <v>70478</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2482,13 +2494,13 @@
         <v>3526</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -2497,13 +2509,13 @@
         <v>9393</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
@@ -2512,13 +2524,13 @@
         <v>12919</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2574,7 +2586,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2586,13 +2598,13 @@
         <v>39958</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>46</v>
@@ -2601,13 +2613,13 @@
         <v>25065</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>92</v>
@@ -2616,13 +2628,13 @@
         <v>65023</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,13 +2649,13 @@
         <v>99354</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>236</v>
@@ -2652,13 +2664,13 @@
         <v>114488</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>376</v>
@@ -2667,13 +2679,13 @@
         <v>213841</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,13 +2700,13 @@
         <v>55211</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>201</v>
@@ -2703,13 +2715,13 @@
         <v>88390</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>291</v>
@@ -2718,13 +2730,13 @@
         <v>143601</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,13 +2751,13 @@
         <v>1503</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H27" s="7">
         <v>8</v>
@@ -2754,13 +2766,13 @@
         <v>3553</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M27" s="7">
         <v>10</v>
@@ -2769,13 +2781,13 @@
         <v>5056</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,10 +3011,10 @@
         <v>221</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>14</v>
+        <v>222</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H32" s="7">
         <v>28</v>
@@ -3011,13 +3023,13 @@
         <v>11327</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>225</v>
+        <v>16</v>
       </c>
       <c r="M32" s="7">
         <v>54</v>
@@ -3106,7 +3118,7 @@
         <v>231</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>126</v>
+        <v>232</v>
       </c>
       <c r="H34" s="7">
         <v>403</v>
@@ -3115,13 +3127,13 @@
         <v>399200</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M34" s="7">
         <v>686</v>
@@ -3130,13 +3142,13 @@
         <v>700672</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>169</v>
+        <v>237</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3151,13 +3163,13 @@
         <v>240451</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H35" s="7">
         <v>420</v>
@@ -3166,13 +3178,13 @@
         <v>302261</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M35" s="7">
         <v>652</v>
@@ -3181,13 +3193,13 @@
         <v>542712</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3202,13 +3214,13 @@
         <v>68909</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H36" s="7">
         <v>111</v>
@@ -3217,13 +3229,13 @@
         <v>85102</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M36" s="7">
         <v>182</v>
@@ -3232,13 +3244,13 @@
         <v>154011</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,13 +3265,13 @@
         <v>16922</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="H37" s="7">
         <v>25</v>
@@ -3268,13 +3280,13 @@
         <v>17482</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M37" s="7">
         <v>38</v>
@@ -3283,13 +3295,13 @@
         <v>34404</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3345,7 +3357,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3357,13 +3369,13 @@
         <v>417047</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H39" s="7">
         <v>359</v>
@@ -3372,13 +3384,13 @@
         <v>328223</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M39" s="7">
         <v>663</v>
@@ -3387,13 +3399,13 @@
         <v>745270</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3408,13 +3420,13 @@
         <v>289469</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>273</v>
+        <v>137</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H40" s="7">
         <v>410</v>
@@ -3423,13 +3435,13 @@
         <v>320809</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M40" s="7">
         <v>707</v>
@@ -3438,13 +3450,13 @@
         <v>610278</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,13 +3471,13 @@
         <v>127300</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>283</v>
+        <v>107</v>
       </c>
       <c r="H41" s="7">
         <v>261</v>
@@ -3474,13 +3486,13 @@
         <v>196267</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M41" s="7">
         <v>397</v>
@@ -3489,13 +3501,13 @@
         <v>323567</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>100</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,13 +3522,13 @@
         <v>24434</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="H42" s="7">
         <v>31</v>
@@ -3525,13 +3537,13 @@
         <v>22439</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>117</v>
+        <v>295</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>292</v>
+        <v>154</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>261</v>
+        <v>14</v>
       </c>
       <c r="M42" s="7">
         <v>55</v>
@@ -3540,13 +3552,13 @@
         <v>46873</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3614,28 +3626,28 @@
         <v>1690724</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H44" s="7">
         <v>2007</v>
       </c>
       <c r="I44" s="7">
-        <v>1664985</v>
+        <v>1664984</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="M44" s="7">
         <v>3478</v>
@@ -3644,13 +3656,13 @@
         <v>3355708</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,13 +3677,13 @@
         <v>1191545</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="H45" s="7">
         <v>2217</v>
@@ -3680,13 +3692,13 @@
         <v>1455801</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>267</v>
+        <v>312</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="M45" s="7">
         <v>3526</v>
@@ -3695,13 +3707,13 @@
         <v>2647346</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,28 +3728,28 @@
         <v>409683</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H46" s="7">
         <v>979</v>
       </c>
       <c r="I46" s="7">
-        <v>590755</v>
+        <v>590754</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>216</v>
+        <v>321</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="M46" s="7">
         <v>1472</v>
@@ -3746,13 +3758,13 @@
         <v>1000437</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>37</v>
+        <v>323</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,13 +3779,13 @@
         <v>78456</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="H47" s="7">
         <v>141</v>
@@ -3782,13 +3794,13 @@
         <v>85146</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>323</v>
+        <v>192</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>325</v>
+        <v>78</v>
       </c>
       <c r="M47" s="7">
         <v>229</v>
@@ -3797,13 +3809,13 @@
         <v>163601</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>79</v>
+        <v>331</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3830,7 +3842,7 @@
         <v>5344</v>
       </c>
       <c r="I48" s="7">
-        <v>3796686</v>
+        <v>3796685</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>48</v>
@@ -3859,7 +3871,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57B2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57B2_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC91CA31-2E96-42D0-9A2F-9C2A1A945417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97340A1D-A05C-40FA-8901-74EAFA81512E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{05BAE98F-FEBB-4378-B6FD-D9F01039188E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B9D9C372-97EB-4301-AB5E-2E6B0F09AF44}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1446,7 +1446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A7570CA-5289-49AF-BFAB-9AF4740A4E5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{335FC7A2-8923-41EC-85C6-CBA8B433B3EF}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P57B2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57B2_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97340A1D-A05C-40FA-8901-74EAFA81512E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57B47198-E1EC-4C8E-B436-DC4FE298F1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B9D9C372-97EB-4301-AB5E-2E6B0F09AF44}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FA9C32C4-1697-40BA-ADA4-6B449FA9E44D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="329">
   <si>
     <t>Población según se ha sentido feliz en 2023 (Tasa respuesta: 99,57%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>13,73%</t>
   </si>
   <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
   </si>
   <si>
     <t>3,58%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
   </si>
   <si>
     <t>8,55%</t>
   </si>
   <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
   </si>
   <si>
     <t>Buena parte del tiempo</t>
@@ -104,28 +104,28 @@
     <t>75,26%</t>
   </si>
   <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
   </si>
   <si>
     <t>81,12%</t>
   </si>
   <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
   </si>
   <si>
     <t>78,25%</t>
   </si>
   <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
   </si>
   <si>
     <t>En algún momento</t>
@@ -134,28 +134,28 @@
     <t>11,01%</t>
   </si>
   <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
   </si>
   <si>
     <t>15,1%</t>
   </si>
   <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
   </si>
   <si>
     <t>13,1%</t>
   </si>
   <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
   </si>
   <si>
     <t>En ningún momento o en casi ningún momento</t>
@@ -173,13 +173,13 @@
     <t>0,2%</t>
   </si>
   <si>
-    <t>1,12%</t>
+    <t>1,15%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,52%</t>
+    <t>0,49%</t>
   </si>
   <si>
     <t>100%</t>
@@ -191,88 +191,91 @@
     <t>64,79%</t>
   </si>
   <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
   </si>
   <si>
     <t>56,54%</t>
   </si>
   <si>
-    <t>52,76%</t>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
   </si>
   <si>
     <t>60,54%</t>
   </si>
   <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
   </si>
   <si>
     <t>29,02%</t>
   </si>
   <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
   </si>
   <si>
     <t>36,18%</t>
   </si>
   <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
   </si>
   <si>
     <t>32,71%</t>
   </si>
   <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
   </si>
   <si>
     <t>5,11%</t>
   </si>
   <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
   </si>
   <si>
     <t>6,15%</t>
   </si>
   <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
   </si>
   <si>
     <t>5,65%</t>
   </si>
   <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
   </si>
   <si>
     <t>1,08%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
   </si>
   <si>
     <t>1,13%</t>
@@ -281,13 +284,16 @@
     <t>0,48%</t>
   </si>
   <si>
+    <t>2,12%</t>
+  </si>
+  <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -296,58 +302,61 @@
     <t>62,5%</t>
   </si>
   <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
     <t>57,22%</t>
   </si>
   <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
   </si>
   <si>
     <t>59,67%</t>
   </si>
   <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
   </si>
   <si>
     <t>19,94%</t>
   </si>
   <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
   </si>
   <si>
     <t>24,76%</t>
   </si>
   <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
   </si>
   <si>
     <t>22,52%</t>
   </si>
   <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
   </si>
   <si>
     <t>14,23%</t>
   </si>
   <si>
-    <t>10,74%</t>
+    <t>11,05%</t>
   </si>
   <si>
     <t>17,96%</t>
@@ -356,46 +365,43 @@
     <t>14,2%</t>
   </si>
   <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
   </si>
   <si>
     <t>14,21%</t>
   </si>
   <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
   </si>
   <si>
     <t>3,32%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
+    <t>5,53%</t>
   </si>
   <si>
     <t>3,83%</t>
   </si>
   <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
   </si>
   <si>
     <t>3,59%</t>
   </si>
   <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -404,634 +410,616 @@
     <t>64,11%</t>
   </si>
   <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
   </si>
   <si>
     <t>52,63%</t>
   </si>
   <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
   </si>
   <si>
     <t>57,47%</t>
   </si>
   <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
   </si>
   <si>
     <t>26,77%</t>
   </si>
   <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
   </si>
   <si>
     <t>34,36%</t>
   </si>
   <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
   </si>
   <si>
     <t>31,16%</t>
   </si>
   <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
   </si>
   <si>
     <t>7,98%</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
   </si>
   <si>
     <t>10,8%</t>
   </si>
   <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
     <t>8,11%</t>
   </si>
   <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
   </si>
   <si>
     <t>2,24%</t>
   </si>
   <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
+    <t>1,98%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1446,7 +1434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{335FC7A2-8923-41EC-85C6-CBA8B433B3EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3775C20E-2754-4BE1-B57C-9A8EC78B9C9A}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1857,13 +1845,13 @@
         <v>648296</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1878,13 +1866,13 @@
         <v>150683</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>276</v>
@@ -1893,13 +1881,13 @@
         <v>199559</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>389</v>
@@ -1908,13 +1896,13 @@
         <v>350241</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1929,13 +1917,13 @@
         <v>26526</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>48</v>
@@ -1944,13 +1932,13 @@
         <v>33941</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>69</v>
@@ -1959,13 +1947,13 @@
         <v>60467</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1980,13 +1968,13 @@
         <v>5634</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -1995,13 +1983,13 @@
         <v>6219</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>12</v>
@@ -2010,13 +1998,13 @@
         <v>11852</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2072,7 +2060,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2084,13 +2072,13 @@
         <v>201392</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>283</v>
@@ -2099,13 +2087,13 @@
         <v>212147</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>488</v>
@@ -2114,13 +2102,13 @@
         <v>413540</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2135,13 +2123,13 @@
         <v>64270</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H15" s="7">
         <v>135</v>
@@ -2150,13 +2138,13 @@
         <v>91798</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M15" s="7">
         <v>218</v>
@@ -2165,13 +2153,13 @@
         <v>156069</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2186,13 +2174,13 @@
         <v>45865</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>89</v>
@@ -2201,13 +2189,13 @@
         <v>52645</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>145</v>
@@ -2216,13 +2204,13 @@
         <v>98510</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,13 +2225,13 @@
         <v>10713</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -2252,13 +2240,13 @@
         <v>14191</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>41</v>
@@ -2267,13 +2255,13 @@
         <v>24904</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,7 +2317,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2341,13 +2329,13 @@
         <v>198301</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>299</v>
@@ -2356,13 +2344,13 @@
         <v>223168</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>463</v>
@@ -2371,13 +2359,13 @@
         <v>421470</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2392,13 +2380,13 @@
         <v>82811</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>202</v>
@@ -2407,13 +2395,13 @@
         <v>145681</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>290</v>
@@ -2422,13 +2410,13 @@
         <v>228493</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,13 +2431,13 @@
         <v>24680</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>73</v>
@@ -2458,13 +2446,13 @@
         <v>45798</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>97</v>
@@ -2473,13 +2461,13 @@
         <v>70478</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2494,13 +2482,13 @@
         <v>3526</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -2509,13 +2497,13 @@
         <v>9393</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
@@ -2524,13 +2512,13 @@
         <v>12919</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2586,7 +2574,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2598,13 +2586,13 @@
         <v>39958</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>46</v>
@@ -2613,13 +2601,13 @@
         <v>25065</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>92</v>
@@ -2628,13 +2616,13 @@
         <v>65023</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2649,13 +2637,13 @@
         <v>99354</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>236</v>
@@ -2664,13 +2652,13 @@
         <v>114488</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>376</v>
@@ -2679,13 +2667,13 @@
         <v>213841</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2700,13 +2688,13 @@
         <v>55211</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>201</v>
@@ -2715,13 +2703,13 @@
         <v>88390</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>291</v>
@@ -2730,13 +2718,13 @@
         <v>143601</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,13 +2739,13 @@
         <v>1503</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H27" s="7">
         <v>8</v>
@@ -2766,13 +2754,13 @@
         <v>3553</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M27" s="7">
         <v>10</v>
@@ -2781,13 +2769,13 @@
         <v>5056</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,10 +2999,10 @@
         <v>221</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H32" s="7">
         <v>28</v>
@@ -3023,13 +3011,13 @@
         <v>11327</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="M32" s="7">
         <v>54</v>
@@ -3118,7 +3106,7 @@
         <v>231</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>232</v>
+        <v>126</v>
       </c>
       <c r="H34" s="7">
         <v>403</v>
@@ -3127,13 +3115,13 @@
         <v>399200</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M34" s="7">
         <v>686</v>
@@ -3142,13 +3130,13 @@
         <v>700672</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,13 +3151,13 @@
         <v>240451</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H35" s="7">
         <v>420</v>
@@ -3178,13 +3166,13 @@
         <v>302261</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M35" s="7">
         <v>652</v>
@@ -3193,13 +3181,13 @@
         <v>542712</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3214,13 +3202,13 @@
         <v>68909</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H36" s="7">
         <v>111</v>
@@ -3229,13 +3217,13 @@
         <v>85102</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M36" s="7">
         <v>182</v>
@@ -3244,13 +3232,13 @@
         <v>154011</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,13 +3253,13 @@
         <v>16922</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="H37" s="7">
         <v>25</v>
@@ -3280,13 +3268,13 @@
         <v>17482</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M37" s="7">
         <v>38</v>
@@ -3295,13 +3283,13 @@
         <v>34404</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3357,7 +3345,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3369,13 +3357,13 @@
         <v>417047</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H39" s="7">
         <v>359</v>
@@ -3384,13 +3372,13 @@
         <v>328223</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M39" s="7">
         <v>663</v>
@@ -3399,13 +3387,13 @@
         <v>745270</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,13 +3408,13 @@
         <v>289469</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>137</v>
+        <v>273</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H40" s="7">
         <v>410</v>
@@ -3435,13 +3423,13 @@
         <v>320809</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M40" s="7">
         <v>707</v>
@@ -3450,13 +3438,13 @@
         <v>610278</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,13 +3459,13 @@
         <v>127300</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>107</v>
+        <v>283</v>
       </c>
       <c r="H41" s="7">
         <v>261</v>
@@ -3486,13 +3474,13 @@
         <v>196267</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M41" s="7">
         <v>397</v>
@@ -3501,13 +3489,13 @@
         <v>323567</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>291</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,13 +3510,13 @@
         <v>24434</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H42" s="7">
         <v>31</v>
@@ -3537,13 +3525,13 @@
         <v>22439</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>295</v>
+        <v>117</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>154</v>
+        <v>292</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>14</v>
+        <v>261</v>
       </c>
       <c r="M42" s="7">
         <v>55</v>
@@ -3552,13 +3540,13 @@
         <v>46873</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,28 +3614,28 @@
         <v>1690724</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H44" s="7">
         <v>2007</v>
       </c>
       <c r="I44" s="7">
-        <v>1664984</v>
+        <v>1664985</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M44" s="7">
         <v>3478</v>
@@ -3656,13 +3644,13 @@
         <v>3355708</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,13 +3665,13 @@
         <v>1191545</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H45" s="7">
         <v>2217</v>
@@ -3692,13 +3680,13 @@
         <v>1455801</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>312</v>
+        <v>267</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="M45" s="7">
         <v>3526</v>
@@ -3707,13 +3695,13 @@
         <v>2647346</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,28 +3716,28 @@
         <v>409683</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H46" s="7">
         <v>979</v>
       </c>
       <c r="I46" s="7">
-        <v>590754</v>
+        <v>590755</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>321</v>
+        <v>216</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="M46" s="7">
         <v>1472</v>
@@ -3758,13 +3746,13 @@
         <v>1000437</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>323</v>
+        <v>37</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,13 +3767,13 @@
         <v>78456</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H47" s="7">
         <v>141</v>
@@ -3794,13 +3782,13 @@
         <v>85146</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>192</v>
+        <v>323</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>78</v>
+        <v>325</v>
       </c>
       <c r="M47" s="7">
         <v>229</v>
@@ -3809,13 +3797,13 @@
         <v>163601</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>331</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,7 +3830,7 @@
         <v>5344</v>
       </c>
       <c r="I48" s="7">
-        <v>3796685</v>
+        <v>3796686</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>48</v>
@@ -3871,7 +3859,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57B2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57B2_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57B47198-E1EC-4C8E-B436-DC4FE298F1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C85F68C-7698-4C55-83E5-DCE37AB0F035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FA9C32C4-1697-40BA-ADA4-6B449FA9E44D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E630FA3B-1581-4E96-8CBF-8439FED0B141}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="331">
   <si>
     <t>Población según se ha sentido feliz en 2023 (Tasa respuesta: 99,57%)</t>
   </si>
@@ -71,955 +71,961 @@
     <t>Todo o casi todo el tiempo</t>
   </si>
   <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>Buena parte del tiempo</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>En algún momento</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>En ningún momento o en casi ningún momento</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
   </si>
   <si>
     <t>3,58%</t>
   </si>
   <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>Buena parte del tiempo</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>En algún momento</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>En ningún momento o en casi ningún momento</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
   </si>
   <si>
     <t>16,61%</t>
   </si>
   <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
   </si>
   <si>
     <t>36,94%</t>
   </si>
   <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
   </si>
   <si>
     <t>1,79%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
+    <t>2,53%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1434,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3775C20E-2754-4BE1-B57C-9A8EC78B9C9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8858F8-84C9-4E95-A68E-565374AC72F9}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1555,7 +1561,7 @@
         <v>34</v>
       </c>
       <c r="D4" s="7">
-        <v>35732</v>
+        <v>51473</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1570,7 +1576,7 @@
         <v>17</v>
       </c>
       <c r="I4" s="7">
-        <v>9709</v>
+        <v>10498</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1585,7 +1591,7 @@
         <v>51</v>
       </c>
       <c r="N4" s="7">
-        <v>45441</v>
+        <v>61972</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1606,7 +1612,7 @@
         <v>258</v>
       </c>
       <c r="D5" s="7">
-        <v>195911</v>
+        <v>227059</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1621,7 +1627,7 @@
         <v>427</v>
       </c>
       <c r="I5" s="7">
-        <v>220161</v>
+        <v>235977</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1636,7 +1642,7 @@
         <v>685</v>
       </c>
       <c r="N5" s="7">
-        <v>416071</v>
+        <v>463034</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1657,7 +1663,7 @@
         <v>39</v>
       </c>
       <c r="D6" s="7">
-        <v>28655</v>
+        <v>32911</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1672,7 +1678,7 @@
         <v>93</v>
       </c>
       <c r="I6" s="7">
-        <v>40992</v>
+        <v>42577</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1687,7 +1693,7 @@
         <v>132</v>
       </c>
       <c r="N6" s="7">
-        <v>69647</v>
+        <v>75488</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1723,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>542</v>
+        <v>583</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1738,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>542</v>
+        <v>583</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>46</v>
@@ -1759,7 +1765,7 @@
         <v>331</v>
       </c>
       <c r="D8" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>48</v>
@@ -1774,7 +1780,7 @@
         <v>538</v>
       </c>
       <c r="I8" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>48</v>
@@ -1789,7 +1795,7 @@
         <v>869</v>
       </c>
       <c r="N8" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -1812,7 +1818,7 @@
         <v>244</v>
       </c>
       <c r="D9" s="7">
-        <v>336455</v>
+        <v>336782</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>50</v>
@@ -1827,7 +1833,7 @@
         <v>382</v>
       </c>
       <c r="I9" s="7">
-        <v>311841</v>
+        <v>290070</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>53</v>
@@ -1842,7 +1848,7 @@
         <v>626</v>
       </c>
       <c r="N9" s="7">
-        <v>648296</v>
+        <v>626852</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>56</v>
@@ -1863,7 +1869,7 @@
         <v>113</v>
       </c>
       <c r="D10" s="7">
-        <v>150683</v>
+        <v>149642</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>59</v>
@@ -1878,7 +1884,7 @@
         <v>276</v>
       </c>
       <c r="I10" s="7">
-        <v>199559</v>
+        <v>185176</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>62</v>
@@ -1893,7 +1899,7 @@
         <v>389</v>
       </c>
       <c r="N10" s="7">
-        <v>350241</v>
+        <v>334818</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>65</v>
@@ -1914,7 +1920,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="7">
-        <v>26526</v>
+        <v>26348</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>68</v>
@@ -1929,7 +1935,7 @@
         <v>48</v>
       </c>
       <c r="I11" s="7">
-        <v>33941</v>
+        <v>31429</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>71</v>
@@ -1944,7 +1950,7 @@
         <v>69</v>
       </c>
       <c r="N11" s="7">
-        <v>60467</v>
+        <v>57777</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>74</v>
@@ -1965,7 +1971,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>5634</v>
+        <v>5618</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>77</v>
@@ -1980,7 +1986,7 @@
         <v>8</v>
       </c>
       <c r="I12" s="7">
-        <v>6219</v>
+        <v>5782</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>80</v>
@@ -1995,7 +2001,7 @@
         <v>12</v>
       </c>
       <c r="N12" s="7">
-        <v>11852</v>
+        <v>11400</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>83</v>
@@ -2016,7 +2022,7 @@
         <v>382</v>
       </c>
       <c r="D13" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>48</v>
@@ -2031,7 +2037,7 @@
         <v>714</v>
       </c>
       <c r="I13" s="7">
-        <v>551560</v>
+        <v>512457</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>48</v>
@@ -2046,7 +2052,7 @@
         <v>1096</v>
       </c>
       <c r="N13" s="7">
-        <v>1070857</v>
+        <v>1030847</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>48</v>
@@ -2069,7 +2075,7 @@
         <v>205</v>
       </c>
       <c r="D14" s="7">
-        <v>201392</v>
+        <v>199369</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>87</v>
@@ -2084,7 +2090,7 @@
         <v>283</v>
       </c>
       <c r="I14" s="7">
-        <v>212147</v>
+        <v>199334</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>90</v>
@@ -2099,7 +2105,7 @@
         <v>488</v>
       </c>
       <c r="N14" s="7">
-        <v>413540</v>
+        <v>398703</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>93</v>
@@ -2120,7 +2126,7 @@
         <v>83</v>
       </c>
       <c r="D15" s="7">
-        <v>64270</v>
+        <v>62033</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>96</v>
@@ -2135,7 +2141,7 @@
         <v>135</v>
       </c>
       <c r="I15" s="7">
-        <v>91798</v>
+        <v>85562</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>99</v>
@@ -2150,7 +2156,7 @@
         <v>218</v>
       </c>
       <c r="N15" s="7">
-        <v>156069</v>
+        <v>147595</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>102</v>
@@ -2171,7 +2177,7 @@
         <v>56</v>
       </c>
       <c r="D16" s="7">
-        <v>45865</v>
+        <v>44435</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>105</v>
@@ -2186,31 +2192,31 @@
         <v>89</v>
       </c>
       <c r="I16" s="7">
-        <v>52645</v>
+        <v>48763</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>145</v>
       </c>
       <c r="N16" s="7">
-        <v>98510</v>
+        <v>93199</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2222,46 +2228,46 @@
         <v>16</v>
       </c>
       <c r="D17" s="7">
-        <v>10713</v>
+        <v>10213</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
       </c>
       <c r="I17" s="7">
-        <v>14191</v>
+        <v>13137</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>41</v>
       </c>
       <c r="N17" s="7">
-        <v>24904</v>
+        <v>23350</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2273,7 +2279,7 @@
         <v>360</v>
       </c>
       <c r="D18" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>48</v>
@@ -2288,7 +2294,7 @@
         <v>532</v>
       </c>
       <c r="I18" s="7">
-        <v>370782</v>
+        <v>346796</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>48</v>
@@ -2303,7 +2309,7 @@
         <v>892</v>
       </c>
       <c r="N18" s="7">
-        <v>693023</v>
+        <v>662847</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>48</v>
@@ -2317,7 +2323,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2326,46 +2332,46 @@
         <v>164</v>
       </c>
       <c r="D19" s="7">
-        <v>198301</v>
+        <v>193737</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>299</v>
       </c>
       <c r="I19" s="7">
-        <v>223168</v>
+        <v>205469</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>463</v>
       </c>
       <c r="N19" s="7">
-        <v>421470</v>
+        <v>399207</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,46 +2383,46 @@
         <v>88</v>
       </c>
       <c r="D20" s="7">
-        <v>82811</v>
+        <v>79628</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>202</v>
       </c>
       <c r="I20" s="7">
-        <v>145681</v>
+        <v>214899</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>290</v>
       </c>
       <c r="N20" s="7">
-        <v>228493</v>
+        <v>294527</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,46 +2434,46 @@
         <v>24</v>
       </c>
       <c r="D21" s="7">
-        <v>24680</v>
+        <v>23775</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>73</v>
       </c>
       <c r="I21" s="7">
-        <v>45798</v>
+        <v>42479</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>97</v>
       </c>
       <c r="N21" s="7">
-        <v>70478</v>
+        <v>66254</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,46 +2485,46 @@
         <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>3526</v>
+        <v>3327</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
       </c>
       <c r="I22" s="7">
-        <v>9393</v>
+        <v>8631</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
       </c>
       <c r="N22" s="7">
-        <v>12919</v>
+        <v>11958</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2530,7 +2536,7 @@
         <v>279</v>
       </c>
       <c r="D23" s="7">
-        <v>309319</v>
+        <v>300467</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>48</v>
@@ -2545,7 +2551,7 @@
         <v>589</v>
       </c>
       <c r="I23" s="7">
-        <v>424040</v>
+        <v>471478</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>48</v>
@@ -2560,7 +2566,7 @@
         <v>868</v>
       </c>
       <c r="N23" s="7">
-        <v>733360</v>
+        <v>771945</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>48</v>
@@ -2574,7 +2580,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2583,46 +2589,46 @@
         <v>46</v>
       </c>
       <c r="D24" s="7">
-        <v>39958</v>
+        <v>35612</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>46</v>
       </c>
       <c r="I24" s="7">
-        <v>25065</v>
+        <v>21896</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>92</v>
       </c>
       <c r="N24" s="7">
-        <v>65023</v>
+        <v>57508</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,46 +2640,46 @@
         <v>140</v>
       </c>
       <c r="D25" s="7">
-        <v>99354</v>
+        <v>90672</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>236</v>
       </c>
       <c r="I25" s="7">
-        <v>114488</v>
+        <v>102854</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>376</v>
       </c>
       <c r="N25" s="7">
-        <v>213841</v>
+        <v>193526</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2685,46 +2691,46 @@
         <v>90</v>
       </c>
       <c r="D26" s="7">
-        <v>55211</v>
+        <v>50480</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>201</v>
       </c>
       <c r="I26" s="7">
-        <v>88390</v>
+        <v>80289</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>291</v>
       </c>
       <c r="N26" s="7">
-        <v>143601</v>
+        <v>130769</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2736,46 +2742,46 @@
         <v>2</v>
       </c>
       <c r="D27" s="7">
-        <v>1503</v>
+        <v>1360</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="H27" s="7">
         <v>8</v>
       </c>
       <c r="I27" s="7">
-        <v>3553</v>
+        <v>3236</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M27" s="7">
         <v>10</v>
       </c>
       <c r="N27" s="7">
-        <v>5056</v>
+        <v>4596</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,7 +2793,7 @@
         <v>278</v>
       </c>
       <c r="D28" s="7">
-        <v>196026</v>
+        <v>178125</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>48</v>
@@ -2802,7 +2808,7 @@
         <v>491</v>
       </c>
       <c r="I28" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>48</v>
@@ -2817,7 +2823,7 @@
         <v>769</v>
       </c>
       <c r="N28" s="7">
-        <v>427522</v>
+        <v>386399</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>48</v>
@@ -2831,7 +2837,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2840,46 +2846,46 @@
         <v>191</v>
       </c>
       <c r="D29" s="7">
-        <v>160366</v>
+        <v>156709</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H29" s="7">
         <v>218</v>
       </c>
       <c r="I29" s="7">
-        <v>155630</v>
+        <v>145177</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M29" s="7">
         <v>409</v>
       </c>
       <c r="N29" s="7">
-        <v>315997</v>
+        <v>301885</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,46 +2897,46 @@
         <v>98</v>
       </c>
       <c r="D30" s="7">
-        <v>68598</v>
+        <v>66475</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H30" s="7">
         <v>111</v>
       </c>
       <c r="I30" s="7">
-        <v>61044</v>
+        <v>56786</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M30" s="7">
         <v>209</v>
       </c>
       <c r="N30" s="7">
-        <v>129642</v>
+        <v>123260</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,46 +2948,46 @@
         <v>56</v>
       </c>
       <c r="D31" s="7">
-        <v>32536</v>
+        <v>31322</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H31" s="7">
         <v>103</v>
       </c>
       <c r="I31" s="7">
-        <v>47620</v>
+        <v>44477</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M31" s="7">
         <v>159</v>
       </c>
       <c r="N31" s="7">
-        <v>80155</v>
+        <v>75799</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,46 +2999,46 @@
         <v>26</v>
       </c>
       <c r="D32" s="7">
-        <v>15723</v>
+        <v>15131</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>14</v>
+        <v>219</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H32" s="7">
         <v>28</v>
       </c>
       <c r="I32" s="7">
-        <v>11327</v>
+        <v>10617</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M32" s="7">
         <v>54</v>
       </c>
       <c r="N32" s="7">
-        <v>27051</v>
+        <v>25747</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,7 +3050,7 @@
         <v>371</v>
       </c>
       <c r="D33" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>48</v>
@@ -3059,7 +3065,7 @@
         <v>460</v>
       </c>
       <c r="I33" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>48</v>
@@ -3074,7 +3080,7 @@
         <v>831</v>
       </c>
       <c r="N33" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>48</v>
@@ -3088,7 +3094,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3097,43 +3103,43 @@
         <v>283</v>
       </c>
       <c r="D34" s="7">
-        <v>301472</v>
+        <v>302610</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H34" s="7">
         <v>403</v>
       </c>
       <c r="I34" s="7">
-        <v>399200</v>
+        <v>472530</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M34" s="7">
         <v>686</v>
       </c>
       <c r="N34" s="7">
-        <v>700672</v>
+        <v>775141</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>236</v>
@@ -3148,7 +3154,7 @@
         <v>232</v>
       </c>
       <c r="D35" s="7">
-        <v>240451</v>
+        <v>236907</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>237</v>
@@ -3163,7 +3169,7 @@
         <v>420</v>
       </c>
       <c r="I35" s="7">
-        <v>302261</v>
+        <v>281841</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>240</v>
@@ -3178,7 +3184,7 @@
         <v>652</v>
       </c>
       <c r="N35" s="7">
-        <v>542712</v>
+        <v>518748</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>243</v>
@@ -3199,7 +3205,7 @@
         <v>71</v>
       </c>
       <c r="D36" s="7">
-        <v>68909</v>
+        <v>66985</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>246</v>
@@ -3214,7 +3220,7 @@
         <v>111</v>
       </c>
       <c r="I36" s="7">
-        <v>85102</v>
+        <v>78637</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>249</v>
@@ -3229,7 +3235,7 @@
         <v>182</v>
       </c>
       <c r="N36" s="7">
-        <v>154011</v>
+        <v>145621</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>252</v>
@@ -3250,46 +3256,46 @@
         <v>13</v>
       </c>
       <c r="D37" s="7">
-        <v>16922</v>
+        <v>17777</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="H37" s="7">
         <v>25</v>
       </c>
       <c r="I37" s="7">
-        <v>17482</v>
+        <v>16095</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M37" s="7">
         <v>38</v>
       </c>
       <c r="N37" s="7">
-        <v>34404</v>
+        <v>33873</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,7 +3307,7 @@
         <v>599</v>
       </c>
       <c r="D38" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>48</v>
@@ -3316,7 +3322,7 @@
         <v>959</v>
       </c>
       <c r="I38" s="7">
-        <v>804044</v>
+        <v>849104</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>48</v>
@@ -3331,7 +3337,7 @@
         <v>1558</v>
       </c>
       <c r="N38" s="7">
-        <v>1431798</v>
+        <v>1473383</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>48</v>
@@ -3345,7 +3351,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3354,46 +3360,46 @@
         <v>304</v>
       </c>
       <c r="D39" s="7">
-        <v>417047</v>
+        <v>552519</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H39" s="7">
         <v>359</v>
       </c>
       <c r="I39" s="7">
-        <v>328223</v>
+        <v>268712</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M39" s="7">
         <v>663</v>
       </c>
       <c r="N39" s="7">
-        <v>745270</v>
+        <v>821231</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3405,46 +3411,46 @@
         <v>297</v>
       </c>
       <c r="D40" s="7">
-        <v>289469</v>
+        <v>246344</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H40" s="7">
         <v>410</v>
       </c>
       <c r="I40" s="7">
-        <v>320809</v>
+        <v>266082</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M40" s="7">
         <v>707</v>
       </c>
       <c r="N40" s="7">
-        <v>610278</v>
+        <v>512425</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,46 +3462,46 @@
         <v>136</v>
       </c>
       <c r="D41" s="7">
-        <v>127300</v>
+        <v>108571</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H41" s="7">
         <v>261</v>
       </c>
       <c r="I41" s="7">
-        <v>196267</v>
+        <v>163363</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M41" s="7">
         <v>397</v>
       </c>
       <c r="N41" s="7">
-        <v>323567</v>
+        <v>271934</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>287</v>
+        <v>11</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>100</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,46 +3513,46 @@
         <v>24</v>
       </c>
       <c r="D42" s="7">
-        <v>24434</v>
+        <v>20282</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H42" s="7">
         <v>31</v>
       </c>
       <c r="I42" s="7">
-        <v>22439</v>
+        <v>18979</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>117</v>
+        <v>294</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="M42" s="7">
         <v>55</v>
       </c>
       <c r="N42" s="7">
-        <v>46873</v>
+        <v>39262</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,7 +3564,7 @@
         <v>761</v>
       </c>
       <c r="D43" s="7">
-        <v>858250</v>
+        <v>927715</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>48</v>
@@ -3573,7 +3579,7 @@
         <v>1061</v>
       </c>
       <c r="I43" s="7">
-        <v>867738</v>
+        <v>717136</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>48</v>
@@ -3588,7 +3594,7 @@
         <v>1822</v>
       </c>
       <c r="N43" s="7">
-        <v>1725988</v>
+        <v>1644852</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>48</v>
@@ -3611,46 +3617,46 @@
         <v>1471</v>
       </c>
       <c r="D44" s="7">
-        <v>1690724</v>
+        <v>1828811</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H44" s="7">
         <v>2007</v>
       </c>
       <c r="I44" s="7">
-        <v>1664985</v>
+        <v>1613686</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="M44" s="7">
         <v>3478</v>
       </c>
       <c r="N44" s="7">
-        <v>3355708</v>
+        <v>3442497</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,46 +3668,46 @@
         <v>1309</v>
       </c>
       <c r="D45" s="7">
-        <v>1191545</v>
+        <v>1158759</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="H45" s="7">
         <v>2217</v>
       </c>
       <c r="I45" s="7">
-        <v>1455801</v>
+        <v>1429176</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>267</v>
+        <v>312</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>309</v>
+        <v>181</v>
       </c>
       <c r="M45" s="7">
         <v>3526</v>
       </c>
       <c r="N45" s="7">
-        <v>2647346</v>
+        <v>2587934</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3713,46 +3719,46 @@
         <v>493</v>
       </c>
       <c r="D46" s="7">
-        <v>409683</v>
+        <v>384827</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>313</v>
+        <v>148</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>315</v>
+        <v>37</v>
       </c>
       <c r="H46" s="7">
         <v>979</v>
       </c>
       <c r="I46" s="7">
-        <v>590755</v>
+        <v>532014</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>216</v>
+        <v>318</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M46" s="7">
         <v>1472</v>
       </c>
       <c r="N46" s="7">
-        <v>1000437</v>
+        <v>916841</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>37</v>
+        <v>321</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,46 +3770,46 @@
         <v>88</v>
       </c>
       <c r="D47" s="7">
-        <v>78456</v>
+        <v>73709</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H47" s="7">
         <v>141</v>
       </c>
       <c r="I47" s="7">
-        <v>85146</v>
+        <v>77060</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>325</v>
+        <v>116</v>
       </c>
       <c r="M47" s="7">
         <v>229</v>
       </c>
       <c r="N47" s="7">
-        <v>163601</v>
+        <v>150768</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>326</v>
+        <v>82</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>79</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,7 +3821,7 @@
         <v>3361</v>
       </c>
       <c r="D48" s="7">
-        <v>3370407</v>
+        <v>3446105</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>48</v>
@@ -3830,7 +3836,7 @@
         <v>5344</v>
       </c>
       <c r="I48" s="7">
-        <v>3796686</v>
+        <v>3651936</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>48</v>
@@ -3845,7 +3851,7 @@
         <v>8705</v>
       </c>
       <c r="N48" s="7">
-        <v>7167092</v>
+        <v>7098041</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>48</v>
@@ -3859,7 +3865,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
